--- a/src/test/resources/xls/user/insert.xlsx
+++ b/src/test/resources/xls/user/insert.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiandafu/git/beetlsql/src/test/resources/xls/user/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3075" windowWidth="20175" windowHeight="8460" activeTab="2"/>
+    <workbookView xWindow="4520" yWindow="2940" windowWidth="22600" windowHeight="11480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,17 @@
     <sheet name="insertBatchUser" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>NAME</t>
   </si>
@@ -171,14 +181,6 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -194,7 +196,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,7 +295,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -335,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,7 +372,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,13 +587,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -613,23 +615,23 @@
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="46.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.875" customWidth="1"/>
+    <col min="4" max="5" width="17.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -643,7 +645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -657,15 +659,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1">
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -673,7 +675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1">
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -681,7 +683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1">
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
   </sheetData>
@@ -696,24 +698,24 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -725,100 +727,100 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
+      <c r="C3" s="5">
+        <v>1</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -838,32 +840,32 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1">
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1">
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1">
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -873,7 +875,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -888,7 +890,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -903,7 +905,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -917,7 +919,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -931,7 +933,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -950,9 +952,9 @@
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -962,7 +964,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -974,7 +976,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -986,7 +988,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
